--- a/Structural Analysis/parameters structures.xlsx
+++ b/Structural Analysis/parameters structures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\DSE\WeFlyCycle\Structural Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A540DA6D-9CFC-45E6-A149-42457411CD34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4560FB-B435-4229-92C1-8C8D80E1411E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1008" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="302">
   <si>
     <t>Parameter</t>
   </si>
@@ -592,12 +592,6 @@
   </si>
   <si>
     <t>Aluminium 2024 T6</t>
-  </si>
-  <si>
-    <t>T300 Carbon</t>
-  </si>
-  <si>
-    <t>Glare</t>
   </si>
   <si>
     <t>Yield strength</t>
@@ -1040,6 +1034,27 @@
   <si>
     <t xml:space="preserve">T300 Carbon </t>
   </si>
+  <si>
+    <t>Aluminium 2024 T3</t>
+  </si>
+  <si>
+    <t>T800 Carbon</t>
+  </si>
+  <si>
+    <t>Glare 2</t>
+  </si>
+  <si>
+    <t>Glare 4</t>
+  </si>
+  <si>
+    <t>GLARE 2</t>
+  </si>
+  <si>
+    <t>Fatigue 2*Sa</t>
+  </si>
+  <si>
+    <t>% of yield/ult</t>
+  </si>
 </sst>
 </file>
 
@@ -1049,7 +1064,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1126,6 +1141,12 @@
       <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDCDDDE"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1338,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1459,6 +1480,32 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,6 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1807,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C1" s="56"/>
       <c r="D1" s="56"/>
@@ -1821,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -1835,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
@@ -1849,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -1863,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -1882,10 +1930,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1929,9 +1977,9 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="121">
         <f>SQRT(C3*C4)</f>
-        <v>41.131478213164186</v>
+        <v>35.289403508702151</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1947,8 +1995,8 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="65">
-        <v>170.03</v>
+      <c r="C3" s="120">
+        <v>125.16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -1970,8 +2018,8 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="32">
-        <f t="shared" ref="C4" si="0">9.95</f>
+      <c r="C4" s="110">
+        <f>9.95</f>
         <v>9.9499999999999993</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1985,7 +2033,7 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="111">
         <v>0.22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2005,9 +2053,9 @@
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="110">
         <f>(2*C3)/(C2*(C5+1))</f>
-        <v>6.7767490259764696</v>
+        <v>5.8142192122418912</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -2027,9 +2075,9 @@
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="110">
         <f>C6*C5</f>
-        <v>1.4908847857148233</v>
+        <v>1.279128226693216</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -2042,9 +2090,9 @@
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="112">
         <f>(C6+C7)/2</f>
-        <v>4.1338169058456469</v>
+        <v>3.5466737194675537</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -2058,8 +2106,8 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="65">
-        <v>0.13200000000000001</v>
+      <c r="C9" s="120">
+        <v>0.124</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -2075,7 +2123,7 @@
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="111">
         <f>0.25</f>
         <v>0.25</v>
       </c>
@@ -2093,7 +2141,7 @@
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="111">
         <v>0.57999999999999996</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2113,9 +2161,9 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="113">
         <f>(C11-C10)*C8</f>
-        <v>1.3641595789290633</v>
+        <v>1.1704023274242925</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -2129,9 +2177,9 @@
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="110">
         <f>C9*C8</f>
-        <v>0.54566383157162546</v>
+        <v>0.43978754121397667</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -2144,9 +2192,9 @@
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="67">
-        <f t="shared" ref="C14" si="1">C12 * C13 * C2</f>
-        <v>30.617143023100745</v>
+      <c r="C14" s="122">
+        <f>C12 * C13 * C2</f>
+        <v>18.164456857252631</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>45</v>
@@ -2162,7 +2210,7 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="114" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2179,8 +2227,8 @@
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="65">
-        <v>829310</v>
+      <c r="C16" s="120">
+        <v>670642</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>54</v>
@@ -2188,11 +2236,11 @@
       <c r="E16" s="15"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="115">
         <f>20</f>
         <v>20</v>
       </c>
@@ -2203,13 +2251,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="42">
-        <f>J29*C19</f>
-        <v>646200000</v>
+      <c r="C18" s="116">
+        <f>H28</f>
+        <v>345000000</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>55</v>
@@ -2218,23 +2266,23 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="43">
-        <f t="shared" ref="C19" si="2">0.6</f>
+        <v>211</v>
+      </c>
+      <c r="C19" s="117">
+        <f>0.6</f>
         <v>0.6</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.2">
+    <row r="20" spans="1:12" ht="13.2">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="115">
         <f>1.5</f>
         <v>1.5</v>
       </c>
@@ -2245,26 +2293,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="41">
-        <f>3000</f>
-        <v>3000</v>
+      <c r="C21" s="115">
+        <f>1724</f>
+        <v>1724</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="41">
-        <f>0.35 * C2/2</f>
-        <v>7.1980086873037319</v>
+      <c r="C22" s="115">
+        <f>0.4 * C2/2</f>
+        <v>7.0578807017404301</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
@@ -2274,13 +2322,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="41">
-        <f>0</f>
-        <v>0</v>
+      <c r="C23" s="44">
+        <v>6981.2433860000001</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>56</v>
@@ -2290,221 +2337,266 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="68">
-        <f>0.036</f>
-        <v>3.5999999999999997E-2</v>
+      <c r="C24" s="123">
+        <f>0.05</f>
+        <v>0.05</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="42">
-        <v>2520</v>
+      <c r="C25" s="116">
+        <v>2780</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="118" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K26" s="16" t="s">
+      <c r="G26" s="104"/>
+      <c r="H26" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="I26" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="J26" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="41">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="C27" s="115">
+        <f>1724</f>
+        <v>1724</v>
+      </c>
+      <c r="G27" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="42">
-        <f>2780</f>
+      <c r="H27" s="106">
         <v>2780</v>
       </c>
-      <c r="I27" s="42">
-        <f>1600</f>
-        <v>1600</v>
-      </c>
-      <c r="J27" s="42">
-        <f>2520</f>
+      <c r="I27" s="106">
+        <v>1800</v>
+      </c>
+      <c r="J27" s="106">
         <v>2520</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="104">
+        <v>2450</v>
+      </c>
+      <c r="L27" s="105" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="41">
-        <f>0</f>
-        <v>0</v>
+      <c r="C28" s="115">
+        <f xml:space="preserve"> 0.7 * (C2/2)</f>
+        <v>12.351291228045753</v>
       </c>
       <c r="E28" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="42">
-        <f>345 * 10^6</f>
+      <c r="G28" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="106">
         <v>345000000</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="104"/>
+      <c r="L28" s="105" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="42">
-        <f>427*10^6</f>
-        <v>427000000</v>
-      </c>
-      <c r="I29" s="42">
-        <f>3400 * 10^6</f>
-        <v>3400000000</v>
-      </c>
-      <c r="J29" s="42">
-        <f>1077*10^6</f>
-        <v>1077000000</v>
-      </c>
-      <c r="K29" s="16" t="s">
+      <c r="C29" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="106">
+        <v>483000000</v>
+      </c>
+      <c r="I29" s="106">
+        <v>3290000000</v>
+      </c>
+      <c r="J29" s="106">
+        <v>992000000</v>
+      </c>
+      <c r="K29" s="104">
+        <v>843000000</v>
+      </c>
+      <c r="L29" s="105" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="16" t="s">
+      <c r="C30" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="106">
+        <v>0.6</v>
+      </c>
+      <c r="J30" s="106">
+        <v>0.6</v>
+      </c>
+      <c r="K30" s="104">
+        <v>0.6</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="109">
+        <v>7146.1616480000002</v>
+      </c>
+      <c r="G31" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="106">
+        <v>4</v>
+      </c>
+      <c r="J31" s="106">
+        <v>4</v>
+      </c>
+      <c r="K31" s="104">
+        <v>4</v>
+      </c>
+      <c r="L31" s="105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="120">
+        <v>1740</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H32" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="42">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="J30" s="42">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="58" t="s">
+      <c r="L32" s="104"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="16">
-        <v>10244.935310000001</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="42">
-        <v>4</v>
-      </c>
-      <c r="J31" s="42">
-        <v>4</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" s="65">
-        <v>2125</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" t="s">
-        <v>192</v>
-      </c>
-      <c r="I32" t="s">
-        <v>193</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" s="43">
-        <f>3.8</f>
-        <v>3.8</v>
+      <c r="C33" s="115">
+        <f>3.4</f>
+        <v>3.4</v>
+      </c>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="G34" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="H34" s="58">
+        <v>126295859.3</v>
+      </c>
+      <c r="I34" s="58">
+        <v>910220384.89999998</v>
+      </c>
+      <c r="J34" s="58">
+        <v>290726196.30000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="G35" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="H35">
+        <f>H34/H28</f>
+        <v>0.36607495449275362</v>
+      </c>
+      <c r="I35">
+        <f>I34/(I29*I30)</f>
+        <v>0.46110455162107394</v>
+      </c>
+      <c r="J35">
+        <f>J34/(J29*J30)</f>
+        <v>0.48845127066532262</v>
       </c>
     </row>
   </sheetData>
@@ -2525,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371C6182-CEEF-48E5-98F1-1C341E84BF78}">
   <dimension ref="A1:M1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -3086,7 +3178,7 @@
       <c r="E32" s="15"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>152</v>
       </c>
@@ -3104,7 +3196,7 @@
       </c>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>155</v>
       </c>
@@ -3122,10 +3214,10 @@
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>156</v>
       </c>
@@ -3147,17 +3239,17 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>164</v>
       </c>
@@ -3167,7 +3259,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>159</v>
       </c>
@@ -3178,15 +3270,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>165</v>
       </c>
@@ -3194,26 +3286,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="54">
-        <f>I45*C42</f>
-        <v>646200000</v>
+        <v>3400000000</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="100" t="s">
+      <c r="F41" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>168</v>
       </c>
@@ -3223,21 +3315,24 @@
       <c r="D42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F42"/>
-      <c r="G42" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J42" s="16" t="s">
+      <c r="F42" s="100"/>
+      <c r="G42" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="I42" s="101" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" s="101" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>169</v>
       </c>
@@ -3247,26 +3342,26 @@
       <c r="D43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="42">
-        <f>2780</f>
+      <c r="G43" s="102">
         <v>2780</v>
       </c>
-      <c r="H43" s="42">
-        <f>1600</f>
-        <v>1600</v>
-      </c>
-      <c r="I43" s="42">
-        <f>2520</f>
+      <c r="H43" s="102">
+        <v>1800</v>
+      </c>
+      <c r="I43" s="102">
         <v>2520</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="100">
+        <v>2450</v>
+      </c>
+      <c r="K43" s="101" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>170</v>
       </c>
@@ -3276,24 +3371,24 @@
       <c r="D44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="42">
-        <f>345 * 10^6</f>
+      <c r="F44" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="G44" s="102">
         <v>345000000</v>
       </c>
-      <c r="H44" s="45" t="s">
+      <c r="H44" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="100"/>
+      <c r="K44" s="101" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>171</v>
       </c>
@@ -3303,26 +3398,26 @@
       <c r="D45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G45" s="42">
-        <f>427*10^6</f>
-        <v>427000000</v>
-      </c>
-      <c r="H45" s="42">
-        <f>3400 * 10^6</f>
-        <v>3400000000</v>
-      </c>
-      <c r="I45" s="42">
-        <f>1077*10^6</f>
-        <v>1077000000</v>
-      </c>
-      <c r="J45" s="16" t="s">
+      <c r="F45" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="102">
+        <v>483000000</v>
+      </c>
+      <c r="H45" s="102">
+        <v>3290000000</v>
+      </c>
+      <c r="I45" s="102">
+        <v>992000000</v>
+      </c>
+      <c r="J45" s="100">
+        <v>843000000</v>
+      </c>
+      <c r="K45" s="101" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="12" t="s">
         <v>175</v>
       </c>
@@ -3332,25 +3427,26 @@
       <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G46" s="45" t="s">
+      <c r="F46" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="42">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="I46" s="42">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="J46" s="16" t="s">
+      <c r="H46" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="I46" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="J46" s="100">
+        <v>0.6</v>
+      </c>
+      <c r="K46" s="101" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="12" t="s">
         <v>172</v>
       </c>
@@ -3360,47 +3456,51 @@
       <c r="D47" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" s="45" t="s">
+      <c r="F47" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="102">
         <v>4</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="102">
         <v>4</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="J47" s="100">
+        <v>4</v>
+      </c>
+      <c r="K47" s="101" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="12" t="s">
         <v>173</v>
       </c>
       <c r="C48" s="54">
-        <v>2520</v>
+        <v>1600</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="100" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="H48" t="s">
-        <v>193</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="101" t="s">
         <v>17</v>
       </c>
+      <c r="K48" s="100"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="12" t="s">
@@ -3420,7 +3520,7 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="65">
@@ -3432,7 +3532,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C51" s="41">
         <v>5</v>
@@ -3443,8 +3543,17 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="53" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C54" s="129">
+        <v>126295859.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C55" s="5">
+        <f>C54/C38</f>
+        <v>0.36607495449275362</v>
+      </c>
+    </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="57" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="58" spans="1:10" ht="15.75" customHeight="1"/>
@@ -4406,8 +4515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2B3CF3-6F65-4FED-8A0E-816FD9D7B59A}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4425,21 +4534,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.399999999999999">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="I1" s="101" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="I1" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
@@ -4480,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>0</v>
@@ -4497,7 +4606,7 @@
         <v>114</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.8" thickBot="1">
@@ -4509,7 +4618,7 @@
       </c>
       <c r="C4" s="66">
         <f>SQRT(C5*C6)</f>
-        <v>35.289403508702151</v>
+        <v>36.320393720332937</v>
       </c>
       <c r="D4" s="66">
         <f>SQRT(D5*D6)</f>
@@ -4523,7 +4632,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="5" t="s">
@@ -4544,7 +4653,7 @@
       </c>
       <c r="N4" s="29"/>
       <c r="O4" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P4" s="27"/>
     </row>
@@ -4556,7 +4665,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="65">
-        <v>125.16</v>
+        <v>132.58000000000001</v>
       </c>
       <c r="D5" s="65">
         <v>169.49</v>
@@ -4568,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="4" t="s">
@@ -4590,7 +4699,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P5" s="27"/>
     </row>
@@ -4617,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="4" t="s">
@@ -4639,7 +4748,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P6" s="27"/>
     </row>
@@ -4663,7 +4772,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="4" t="s">
@@ -4688,7 +4797,7 @@
         <v>55</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P7" s="27"/>
     </row>
@@ -4701,7 +4810,7 @@
       </c>
       <c r="C8" s="32">
         <f>(2*C5)/(C4*(C7+1))</f>
-        <v>5.8142192122418912</v>
+        <v>5.9840833215805143</v>
       </c>
       <c r="D8" s="32">
         <f>(2*D5)/(D4*(D7+1))</f>
@@ -4715,7 +4824,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="4" t="s">
@@ -4740,7 +4849,7 @@
         <v>55</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P8" s="27"/>
     </row>
@@ -4753,7 +4862,7 @@
       </c>
       <c r="C9" s="32">
         <f>C8*C7</f>
-        <v>1.279128226693216</v>
+        <v>1.3164983307477132</v>
       </c>
       <c r="D9" s="32">
         <f>D8*D7</f>
@@ -4767,7 +4876,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="6" t="s">
@@ -4792,7 +4901,7 @@
         <v>55</v>
       </c>
       <c r="O9" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P9" s="27"/>
     </row>
@@ -4805,7 +4914,7 @@
       </c>
       <c r="C10" s="36">
         <f>(C8+C9)/2</f>
-        <v>3.5466737194675537</v>
+        <v>3.6502908261641136</v>
       </c>
       <c r="D10" s="36">
         <f>(D8+D9)/2</f>
@@ -4819,7 +4928,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="4" t="s">
@@ -4865,7 +4974,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="4" t="s">
@@ -4911,7 +5020,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="4" t="s">
@@ -4952,7 +5061,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="4" t="s">
@@ -4986,7 +5095,7 @@
       </c>
       <c r="C14" s="38">
         <f>(C13-C12)*C10</f>
-        <v>1.1704023274242925</v>
+        <v>1.2045959726341573</v>
       </c>
       <c r="D14" s="38">
         <f>(D13-D12)*D10</f>
@@ -5031,7 +5140,7 @@
       </c>
       <c r="C15" s="32">
         <f>C11*C10</f>
-        <v>0.43978754121397667</v>
+        <v>0.45263606244435006</v>
       </c>
       <c r="D15" s="32">
         <f>D11*D10</f>
@@ -5045,7 +5154,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="6" t="s">
@@ -5078,7 +5187,7 @@
       </c>
       <c r="C16" s="67">
         <f>C14 * C15 * C4</f>
-        <v>18.164456857252631</v>
+        <v>19.803461422427734</v>
       </c>
       <c r="D16" s="67">
         <f t="shared" ref="D16:E16" si="2">D14 * D15 * D4</f>
@@ -5112,7 +5221,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P16" s="27"/>
     </row>
@@ -5158,7 +5267,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P17" s="27"/>
     </row>
@@ -5179,7 +5288,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="12" t="s">
@@ -5203,7 +5312,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P18" s="27"/>
     </row>
@@ -5227,7 +5336,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="12" t="s">
@@ -5274,7 +5383,7 @@
         <v>55</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="12" t="s">
@@ -5321,7 +5430,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="12" t="s">
@@ -5346,7 +5455,7 @@
         <v>8</v>
       </c>
       <c r="O21" s="55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P21" s="27"/>
     </row>
@@ -5370,7 +5479,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="12" t="s">
@@ -5395,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="O22" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P22" s="27"/>
     </row>
@@ -5419,7 +5528,7 @@
         <v>56</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="12" t="s">
@@ -5444,7 +5553,7 @@
         <v>17</v>
       </c>
       <c r="O23" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P23" s="27"/>
     </row>
@@ -5454,7 +5563,7 @@
       </c>
       <c r="C24" s="41">
         <f>0.4 * C4/2</f>
-        <v>7.0578807017404301</v>
+        <v>7.2640787440665875</v>
       </c>
       <c r="D24" s="41">
         <f>0</f>
@@ -5468,7 +5577,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="12" t="s">
@@ -5493,7 +5602,7 @@
         <v>8</v>
       </c>
       <c r="O24" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P24" s="27"/>
     </row>
@@ -5516,7 +5625,7 @@
         <v>56</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="12" t="s">
@@ -5539,7 +5648,7 @@
         <v>17</v>
       </c>
       <c r="O25" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P25" s="27"/>
     </row>
@@ -5563,7 +5672,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="12" t="s">
@@ -5588,7 +5697,7 @@
         <v>17</v>
       </c>
       <c r="O26" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P26" s="27"/>
     </row>
@@ -5612,7 +5721,7 @@
         <v>123</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="12" t="s">
@@ -5637,7 +5746,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P27" s="27"/>
     </row>
@@ -5658,7 +5767,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="12" t="s">
@@ -5705,7 +5814,7 @@
         <v>56</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="12" t="s">
@@ -5727,7 +5836,7 @@
         <v>56</v>
       </c>
       <c r="O29" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P29" s="27"/>
     </row>
@@ -5737,7 +5846,7 @@
       </c>
       <c r="C30" s="41">
         <f xml:space="preserve"> 0.7 * (C4/2)</f>
-        <v>12.351291228045753</v>
+        <v>12.712137802116528</v>
       </c>
       <c r="D30" s="41">
         <f>0</f>
@@ -5751,7 +5860,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="12" t="s">
@@ -5776,7 +5885,7 @@
         <v>8</v>
       </c>
       <c r="O30" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P30" s="27"/>
     </row>
@@ -5818,7 +5927,7 @@
         <v>56</v>
       </c>
       <c r="O31" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P31" s="27"/>
     </row>
@@ -5860,13 +5969,13 @@
         <v>8</v>
       </c>
       <c r="O32" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P32" s="27"/>
     </row>
     <row r="33" spans="1:16" ht="13.8" thickBot="1">
       <c r="A33" s="58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C33" s="16">
         <v>7146.1616480000002</v>
@@ -5902,13 +6011,13 @@
         <v>56</v>
       </c>
       <c r="O33" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P33" s="27"/>
     </row>
     <row r="34" spans="1:16" ht="13.8" thickBot="1">
       <c r="A34" s="58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C34" s="65">
         <v>1740</v>
@@ -5948,7 +6057,7 @@
     </row>
     <row r="35" spans="1:16" ht="13.8" thickBot="1">
       <c r="A35" s="58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C35" s="41">
         <f>3.4</f>
@@ -5985,7 +6094,7 @@
         <v>56</v>
       </c>
       <c r="O35" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P35" s="27"/>
     </row>
@@ -6012,17 +6121,19 @@
         <v>56</v>
       </c>
       <c r="O36" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P36" s="27"/>
     </row>
     <row r="37" spans="1:16" ht="20.399999999999999">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
       <c r="I37" s="12" t="s">
         <v>156</v>
       </c>
@@ -6043,21 +6154,25 @@
         <v>8</v>
       </c>
       <c r="O37" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P37" s="27"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="B38" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="A38" s="108"/>
+      <c r="B38" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="109" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" s="109" t="s">
         <v>114</v>
       </c>
       <c r="I38" s="12" t="s">
@@ -6075,27 +6190,27 @@
       </c>
       <c r="N38" s="29"/>
       <c r="O38" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P38" s="27"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="42">
-        <f>2780</f>
+      <c r="B39" s="116">
         <v>2780</v>
       </c>
-      <c r="C39" s="42">
-        <f>1600</f>
-        <v>1600</v>
-      </c>
-      <c r="D39" s="42">
-        <f>2520</f>
+      <c r="C39" s="116">
+        <v>1800</v>
+      </c>
+      <c r="D39" s="116">
         <v>2520</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="108">
+        <v>2450</v>
+      </c>
+      <c r="F39" s="109" t="s">
         <v>123</v>
       </c>
       <c r="I39" s="12" t="s">
@@ -6113,25 +6228,25 @@
       </c>
       <c r="N39" s="29"/>
       <c r="O39" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P39" s="27"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="42">
-        <f>345 * 10^6</f>
+      <c r="A40" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="116">
         <v>345000000</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="108"/>
+      <c r="F40" s="109" t="s">
         <v>55</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -6154,27 +6269,27 @@
         <v>55</v>
       </c>
       <c r="O40" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P40" s="27"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="42">
-        <f>427*10^6</f>
-        <v>427000000</v>
-      </c>
-      <c r="C41" s="42">
-        <f>3400 * 10^6</f>
-        <v>3400000000</v>
-      </c>
-      <c r="D41" s="42">
-        <f>1077*10^6</f>
-        <v>1077000000</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="A41" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="116">
+        <v>483000000</v>
+      </c>
+      <c r="C41" s="116">
+        <v>3290000000</v>
+      </c>
+      <c r="D41" s="116">
+        <v>992000000</v>
+      </c>
+      <c r="E41" s="108">
+        <v>843000000</v>
+      </c>
+      <c r="F41" s="109" t="s">
         <v>55</v>
       </c>
       <c r="I41" s="12" t="s">
@@ -6192,26 +6307,27 @@
       </c>
       <c r="N41" s="29"/>
       <c r="O41" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P41" s="27"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="42">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="D42" s="42">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="C42" s="116">
+        <v>0.6</v>
+      </c>
+      <c r="D42" s="116">
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="108">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="109" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="12" t="s">
@@ -6229,24 +6345,27 @@
       </c>
       <c r="N42" s="29"/>
       <c r="O42" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P42" s="27"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="116">
         <v>4</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="116">
         <v>4</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="108">
+        <v>4</v>
+      </c>
+      <c r="F43" s="109" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="12" t="s">
@@ -6269,26 +6388,27 @@
         <v>55</v>
       </c>
       <c r="O43" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P43" s="27"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="109" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="C44" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="109" t="s">
         <v>17</v>
       </c>
+      <c r="F44" s="108"/>
       <c r="I44" s="12" t="s">
         <v>168</v>
       </c>
@@ -6309,7 +6429,7 @@
         <v>17</v>
       </c>
       <c r="O44" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P44" s="27"/>
     </row>
@@ -6334,7 +6454,7 @@
         <v>8</v>
       </c>
       <c r="O45" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P45" s="27"/>
     </row>
@@ -6359,18 +6479,18 @@
         <v>8</v>
       </c>
       <c r="O46" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P46" s="27"/>
     </row>
     <row r="47" spans="1:16" ht="17.399999999999999">
-      <c r="A47" s="102" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
+      <c r="A47" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
       <c r="I47" s="12" t="s">
         <v>171</v>
       </c>
@@ -6391,7 +6511,7 @@
         <v>8</v>
       </c>
       <c r="O47" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P47" s="27"/>
     </row>
@@ -6423,7 +6543,7 @@
         <v>8</v>
       </c>
       <c r="O48" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P48" s="27"/>
     </row>
@@ -6456,13 +6576,13 @@
         <v>123</v>
       </c>
       <c r="O49" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P49" s="27"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B50" s="16">
         <v>7146.1616480000002</v>
@@ -6496,13 +6616,13 @@
         <v>123</v>
       </c>
       <c r="O50" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P50" s="27"/>
     </row>
     <row r="51" spans="1:16" ht="13.8" thickBot="1">
       <c r="A51" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B51" s="23">
         <f>4 * C23</f>
@@ -6539,13 +6659,13 @@
         <v>17</v>
       </c>
       <c r="O51" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P51" s="27"/>
     </row>
     <row r="52" spans="1:16" ht="13.8" thickBot="1">
       <c r="A52" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B52" s="70">
         <f>C25</f>
@@ -6561,7 +6681,7 @@
         <v>56</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K52" s="65">
         <v>676</v>
@@ -6578,7 +6698,7 @@
     </row>
     <row r="53" spans="1:16" ht="13.8" thickBot="1">
       <c r="A53" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B53" s="65">
         <v>1740</v>
@@ -6593,7 +6713,7 @@
         <v>56</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K53" s="41">
         <f>5</f>
@@ -6612,7 +6732,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B54" s="71">
         <f>SUM(B50:B53)</f>
@@ -6634,8 +6754,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A47:E47"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A47:E47"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="notContainsBlanks" dxfId="11" priority="3">
@@ -6675,14 +6795,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.399999999999999">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
     </row>
     <row r="2" spans="1:19">
       <c r="C2" s="18" t="s">
@@ -6695,7 +6815,7 @@
         <v>178</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
@@ -6717,34 +6837,34 @@
         <v>114</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J3" s="77" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="L3" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="M3" s="77" t="s">
-        <v>254</v>
       </c>
       <c r="N3" s="77" t="s">
         <v>114</v>
       </c>
       <c r="O3" s="77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R3" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>239</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6766,11 +6886,11 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="27"/>
       <c r="J4" s="78" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K4" s="79">
         <v>670642</v>
@@ -6782,13 +6902,13 @@
         <v>829310</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6811,11 +6931,11 @@
         <v>8</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H5" s="27"/>
       <c r="J5" s="78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K5" s="79">
         <v>1740</v>
@@ -6827,13 +6947,13 @@
         <v>2125</v>
       </c>
       <c r="N5" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="O5" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="O5" s="78" t="s">
-        <v>246</v>
-      </c>
       <c r="P5" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6856,11 +6976,11 @@
         <v>8</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H6" s="27"/>
       <c r="J6" s="78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K6" s="80">
         <f>1724</f>
@@ -6875,13 +6995,13 @@
         <v>3000</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6907,11 +7027,11 @@
         <v>55</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H7" s="27"/>
       <c r="J7" s="78" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K7" s="79">
         <v>7536</v>
@@ -6923,10 +7043,10 @@
         <v>10804</v>
       </c>
       <c r="N7" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="O7" s="78" t="s">
         <v>244</v>
-      </c>
-      <c r="O7" s="78" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6952,11 +7072,11 @@
         <v>55</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H8" s="27"/>
       <c r="J8" s="78" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K8" s="81">
         <v>6981.2433860000001</v>
@@ -6970,10 +7090,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6999,11 +7119,11 @@
         <v>55</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H9" s="27"/>
       <c r="J9" s="78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K9" s="80">
         <f>3.4</f>
@@ -7018,10 +7138,10 @@
         <v>3.8</v>
       </c>
       <c r="N9" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7048,7 +7168,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="J10" s="78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K10" s="82">
         <v>7.0578807017404301</v>
@@ -7060,10 +7180,10 @@
         <v>7.1980086873037319</v>
       </c>
       <c r="N10" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7090,7 +7210,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="J11" s="78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K11" s="83">
         <v>12.351291228045753</v>
@@ -7102,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O11" s="78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7130,7 +7250,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="J12" s="86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K12" s="57">
         <f>1.5</f>
@@ -7145,10 +7265,10 @@
         <v>1.5</v>
       </c>
       <c r="N12" s="86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O12" s="86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7198,7 +7318,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="K14" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="13.8" thickBot="1">
@@ -7226,19 +7346,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="L15" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="M15" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="L15" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="M15" s="77" t="s">
-        <v>254</v>
       </c>
       <c r="N15" s="77" t="s">
         <v>114</v>
       </c>
       <c r="O15" s="77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="53.4" thickBot="1">
@@ -7261,11 +7381,11 @@
         <v>8</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H16" s="27"/>
       <c r="J16" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K16" s="87">
         <f>SUM(C17:C18)</f>
@@ -7280,10 +7400,10 @@
         <v>41668.452112999999</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -7308,11 +7428,11 @@
         <v>56</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H17" s="27"/>
       <c r="J17" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K17" s="64">
         <f>102.36</f>
@@ -7327,10 +7447,10 @@
         <v>102.36</v>
       </c>
       <c r="N17" s="86" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.8" thickBot="1">
@@ -7355,11 +7475,11 @@
         <v>56</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H18" s="27"/>
       <c r="J18" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K18" s="76">
         <f>120*K17</f>
@@ -7374,10 +7494,10 @@
         <v>12283.2</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="13.8" thickBot="1">
@@ -7405,7 +7525,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="J19" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K19" s="88">
         <f>6045.72389</f>
@@ -7418,10 +7538,10 @@
         <v>4797</v>
       </c>
       <c r="N19" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="13.8" thickBot="1">
@@ -7449,7 +7569,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="J20" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K20" s="74">
         <v>676</v>
@@ -7461,10 +7581,10 @@
         <v>850</v>
       </c>
       <c r="N20" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="O20" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -7490,11 +7610,11 @@
         <v>8</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H21" s="27"/>
       <c r="J21" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K21" s="64">
         <v>2000</v>
@@ -7506,10 +7626,10 @@
         <v>2000</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -7535,11 +7655,11 @@
         <v>8</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H22" s="27"/>
       <c r="J22" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K22" s="87">
         <v>23153.243385999998</v>
@@ -7551,10 +7671,10 @@
         <v>18929</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -7580,11 +7700,11 @@
         <v>17</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H23" s="27"/>
       <c r="J23" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K23" s="64">
         <f>2000</f>
@@ -7599,10 +7719,10 @@
         <v>2000</v>
       </c>
       <c r="N23" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -7628,11 +7748,11 @@
         <v>8</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H24" s="27"/>
       <c r="J24" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K24" s="64">
         <f>0</f>
@@ -7647,10 +7767,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -7674,11 +7794,11 @@
         <v>17</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H25" s="27"/>
       <c r="J25" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K25" s="75">
         <f>5</f>
@@ -7692,10 +7812,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N25" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -7721,11 +7841,11 @@
         <v>17</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H26" s="27"/>
       <c r="J26" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K26" s="64">
         <f>10</f>
@@ -7740,10 +7860,10 @@
         <v>10</v>
       </c>
       <c r="N26" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -7769,11 +7889,11 @@
         <v>56</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H27" s="27"/>
       <c r="J27" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K27" s="64">
         <f>15</f>
@@ -7787,10 +7907,10 @@
         <v>15</v>
       </c>
       <c r="N27" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -7818,7 +7938,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="J28" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K28" s="64">
         <f>20</f>
@@ -7833,10 +7953,10 @@
         <v>20</v>
       </c>
       <c r="N28" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -7859,11 +7979,11 @@
         <v>56</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H29" s="27"/>
       <c r="J29" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K29" s="76">
         <v>0</v>
@@ -7875,10 +7995,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -7904,11 +8024,11 @@
         <v>8</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H30" s="27"/>
       <c r="J30" s="86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K30" s="80">
         <f>1.5</f>
@@ -7923,10 +8043,10 @@
         <v>1.5</v>
       </c>
       <c r="N30" s="86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O30" s="86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="20.399999999999999">
@@ -7952,18 +8072,18 @@
         <v>56</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K31" s="76"/>
       <c r="L31" s="76"/>
       <c r="M31" s="76"/>
-      <c r="R31" s="101" t="s">
+      <c r="R31" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="12" t="s">
@@ -7988,10 +8108,10 @@
         <v>8</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R32" s="16" t="s">
         <v>181</v>
@@ -8029,25 +8149,25 @@
         <v>56</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J33" s="77" t="s">
         <v>0</v>
       </c>
       <c r="K33" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="L33" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="M33" s="77" t="s">
-        <v>254</v>
       </c>
       <c r="N33" s="77" t="s">
         <v>114</v>
       </c>
       <c r="O33" s="77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R33" s="19" t="s">
         <v>0</v>
@@ -8064,7 +8184,7 @@
         <v>3</v>
       </c>
       <c r="X33" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="13.8" thickBot="1">
@@ -8106,10 +8226,10 @@
         <v>41.131478213164186</v>
       </c>
       <c r="N34" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O34" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>6</v>
@@ -8133,7 +8253,7 @@
         <v>8</v>
       </c>
       <c r="X34" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="13.8" thickBot="1">
@@ -8157,7 +8277,7 @@
         <v>56</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>11</v>
@@ -8172,10 +8292,10 @@
         <v>170.03</v>
       </c>
       <c r="N35" s="92" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O35" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>10</v>
@@ -8196,7 +8316,7 @@
         <v>12</v>
       </c>
       <c r="X35" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -8219,10 +8339,10 @@
         <v>56</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J36" s="58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K36" s="66">
         <f>9.95</f>
@@ -8237,10 +8357,10 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="N36" s="92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O36" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>15</v>
@@ -8264,7 +8384,7 @@
         <v>17</v>
       </c>
       <c r="X36" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -8288,7 +8408,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>19</v>
@@ -8303,10 +8423,10 @@
         <v>0.22</v>
       </c>
       <c r="N37" s="92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O37" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>18</v>
@@ -8327,7 +8447,7 @@
         <v>17</v>
       </c>
       <c r="X37" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -8346,7 +8466,7 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>22</v>
@@ -8364,10 +8484,10 @@
         <v>6.7767490259764696</v>
       </c>
       <c r="N38" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O38" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>21</v>
@@ -8391,7 +8511,7 @@
         <v>8</v>
       </c>
       <c r="X38" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -8410,7 +8530,7 @@
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>26</v>
@@ -8428,10 +8548,10 @@
         <v>1.4908847857148233</v>
       </c>
       <c r="N39" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O39" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>25</v>
@@ -8455,7 +8575,7 @@
         <v>8</v>
       </c>
       <c r="X39" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="13.8" thickBot="1">
@@ -8479,7 +8599,7 @@
         <v>55</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>28</v>
@@ -8497,10 +8617,10 @@
         <v>4.1338169058456469</v>
       </c>
       <c r="N40" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O40" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>27</v>
@@ -8524,7 +8644,7 @@
         <v>8</v>
       </c>
       <c r="X40" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="13.8" thickBot="1">
@@ -8543,10 +8663,10 @@
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J41" s="58" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K41" s="74">
         <v>0.124</v>
@@ -8558,10 +8678,10 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="N41" s="92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O41" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>29</v>
@@ -8582,7 +8702,7 @@
         <v>17</v>
       </c>
       <c r="X41" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -8601,10 +8721,10 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J42" s="89" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K42" s="93">
         <f>0.25</f>
@@ -8619,10 +8739,10 @@
         <v>0.25</v>
       </c>
       <c r="N42" s="92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O42" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>32</v>
@@ -8643,7 +8763,7 @@
         <v>33</v>
       </c>
       <c r="X42" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -8667,10 +8787,10 @@
         <v>55</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J43" s="89" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K43" s="93">
         <v>0.57999999999999996</v>
@@ -8682,10 +8802,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="N43" s="92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O43" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>36</v>
@@ -8703,7 +8823,7 @@
         <v>33</v>
       </c>
       <c r="X43" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -8727,10 +8847,10 @@
         <v>17</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J44" s="89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K44" s="95">
         <f>(K43-K42)*K40</f>
@@ -8745,10 +8865,10 @@
         <v>1.3641595789290633</v>
       </c>
       <c r="N44" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O44" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>38</v>
@@ -8792,10 +8912,10 @@
         <v>8</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J45" s="89" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K45" s="90">
         <f>K41*K40</f>
@@ -8810,10 +8930,10 @@
         <v>0.54566383157162546</v>
       </c>
       <c r="N45" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O45" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>41</v>
@@ -8837,7 +8957,7 @@
         <v>8</v>
       </c>
       <c r="X45" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -8861,10 +8981,10 @@
         <v>8</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J46" s="89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K46" s="96">
         <f>K44 * K45 * K34</f>
@@ -8879,10 +8999,10 @@
         <v>30.617143023100745</v>
       </c>
       <c r="N46" s="92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O46" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>43</v>
@@ -8928,10 +9048,10 @@
         <v>8</v>
       </c>
       <c r="G47" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J47" s="58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K47" s="75">
         <f>20</f>
@@ -8946,10 +9066,10 @@
         <v>20</v>
       </c>
       <c r="N47" s="92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O47" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>47</v>
@@ -8990,7 +9110,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>109</v>
@@ -9008,7 +9128,7 @@
         <v>54</v>
       </c>
       <c r="X48" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -9032,10 +9152,10 @@
         <v>123</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J49" s="89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>49</v>
@@ -9056,7 +9176,7 @@
         <v>17</v>
       </c>
       <c r="X49" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -9080,25 +9200,25 @@
         <v>123</v>
       </c>
       <c r="G50" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J50" s="77" t="s">
         <v>0</v>
       </c>
       <c r="K50" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="L50" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="M50" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="L50" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="M50" s="77" t="s">
-        <v>254</v>
       </c>
       <c r="N50" s="77" t="s">
         <v>114</v>
       </c>
       <c r="O50" s="77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>50</v>
@@ -9119,7 +9239,7 @@
         <v>55</v>
       </c>
       <c r="X50" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="13.8" thickBot="1">
@@ -9143,10 +9263,10 @@
         <v>17</v>
       </c>
       <c r="G51" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K51" s="48">
         <f>44.13</f>
@@ -9161,10 +9281,10 @@
         <v>46.5</v>
       </c>
       <c r="N51" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O51" s="55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>51</v>
@@ -9185,12 +9305,12 @@
         <v>17</v>
       </c>
       <c r="X51" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="13.8" thickBot="1">
       <c r="A52" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C52" s="65">
         <v>676</v>
@@ -9205,7 +9325,7 @@
         <v>56</v>
       </c>
       <c r="J52" s="89" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K52" s="49">
         <v>3.2</v>
@@ -9217,10 +9337,10 @@
         <v>3.2</v>
       </c>
       <c r="N52" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>52</v>
@@ -9241,12 +9361,12 @@
         <v>17</v>
       </c>
       <c r="X52" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C53" s="41">
         <f>5</f>
@@ -9263,7 +9383,7 @@
         <v>8</v>
       </c>
       <c r="J53" s="89" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -9275,10 +9395,10 @@
         <v>2.54</v>
       </c>
       <c r="N53" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>124</v>
@@ -9299,12 +9419,12 @@
         <v>56</v>
       </c>
       <c r="X53" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="J54" s="89" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -9316,10 +9436,10 @@
         <v>5.74</v>
       </c>
       <c r="N54" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>125</v>
@@ -9340,12 +9460,12 @@
         <v>8</v>
       </c>
       <c r="X54" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="J55" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K55" s="52">
         <v>2.9660000000000002</v>
@@ -9357,10 +9477,10 @@
         <v>2.9660000000000002</v>
       </c>
       <c r="N55" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O55" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>53</v>
@@ -9380,12 +9500,12 @@
         <v>56</v>
       </c>
       <c r="X55" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="J56" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
@@ -9398,10 +9518,10 @@
         <v>1.55</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O56" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>120</v>
@@ -9422,12 +9542,12 @@
         <v>8</v>
       </c>
       <c r="X56" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="J57" s="89" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K57">
         <v>0.75</v>
@@ -9439,10 +9559,10 @@
         <v>0.75</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>121</v>
@@ -9463,12 +9583,12 @@
         <v>123</v>
       </c>
       <c r="X57" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="J58" s="89" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K58" s="48">
         <f>5</f>
@@ -9483,10 +9603,10 @@
         <v>5</v>
       </c>
       <c r="N58" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O58" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>122</v>
@@ -9504,12 +9624,12 @@
         <v>17</v>
       </c>
       <c r="X58" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:24">
       <c r="J59" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K59">
         <v>30</v>
@@ -9521,10 +9641,10 @@
         <v>8.25</v>
       </c>
       <c r="N59" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O59" s="55" t="s">
         <v>245</v>
-      </c>
-      <c r="O59" s="55" t="s">
-        <v>247</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>127</v>
@@ -9545,12 +9665,12 @@
         <v>56</v>
       </c>
       <c r="X59" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:24">
       <c r="J60" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K60">
         <v>38.130000000000003</v>
@@ -9562,10 +9682,10 @@
         <v>38.25</v>
       </c>
       <c r="N60" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O60" s="55" t="s">
         <v>245</v>
-      </c>
-      <c r="O60" s="55" t="s">
-        <v>247</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>128</v>
@@ -9586,12 +9706,12 @@
         <v>8</v>
       </c>
       <c r="X60" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="J61" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K61">
         <v>59</v>
@@ -9603,10 +9723,10 @@
         <v>62</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R61" s="58" t="s">
         <v>160</v>
@@ -9646,16 +9766,16 @@
         <v>184</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M63" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N63" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R63" s="58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="T63" s="65">
         <v>7536</v>
@@ -9687,10 +9807,10 @@
         <v>2520</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R64" s="58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T64" s="65">
         <v>1740</v>
@@ -9707,7 +9827,7 @@
     </row>
     <row r="65" spans="10:23">
       <c r="J65" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K65" s="42">
         <f>345</f>
@@ -9720,10 +9840,10 @@
         <v>17</v>
       </c>
       <c r="N65" s="97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R65" s="58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T65" s="41">
         <f>3.4</f>
@@ -9743,7 +9863,7 @@
     </row>
     <row r="66" spans="10:23">
       <c r="J66" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K66" s="42">
         <f>427</f>
@@ -9758,12 +9878,12 @@
         <v>1077</v>
       </c>
       <c r="N66" s="97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="10:23">
       <c r="J67" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K67" s="99" t="s">
         <v>17</v>
@@ -9775,12 +9895,12 @@
         <v>0.6</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="10:23">
       <c r="J68" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K68" s="99" t="s">
         <v>17</v>
@@ -9792,7 +9912,7 @@
         <v>4</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="10:23">
@@ -9862,8 +9982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5D2E11-2AC3-4B18-96D0-DC833658C261}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9881,21 +10001,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.399999999999999">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="I1" s="101" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="I1" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
@@ -9934,7 +10054,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>0</v>
@@ -9951,7 +10071,7 @@
         <v>114</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -9977,7 +10097,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="5" t="s">
@@ -9998,7 +10118,7 @@
       </c>
       <c r="N4" s="29"/>
       <c r="O4" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P4" s="27"/>
     </row>
@@ -10025,7 +10145,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="4" t="s">
@@ -10047,7 +10167,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P5" s="27"/>
     </row>
@@ -10074,7 +10194,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="4" t="s">
@@ -10096,7 +10216,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P6" s="27"/>
     </row>
@@ -10120,7 +10240,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="4" t="s">
@@ -10145,7 +10265,7 @@
         <v>55</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P7" s="27"/>
     </row>
@@ -10172,7 +10292,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="4" t="s">
@@ -10197,7 +10317,7 @@
         <v>55</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P8" s="27"/>
     </row>
@@ -10224,7 +10344,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="6" t="s">
@@ -10249,7 +10369,7 @@
         <v>55</v>
       </c>
       <c r="O9" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P9" s="27"/>
     </row>
@@ -10276,7 +10396,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="4" t="s">
@@ -10322,7 +10442,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="4" t="s">
@@ -10368,7 +10488,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="4" t="s">
@@ -10409,7 +10529,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="4" t="s">
@@ -10502,7 +10622,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="6" t="s">
@@ -10569,7 +10689,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P16" s="27"/>
     </row>
@@ -10615,7 +10735,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P17" s="27"/>
     </row>
@@ -10639,7 +10759,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="12" t="s">
@@ -10663,7 +10783,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P18" s="27"/>
     </row>
@@ -10687,7 +10807,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="12" t="s">
@@ -10734,7 +10854,7 @@
         <v>55</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="12" t="s">
@@ -10772,7 +10892,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="12" t="s">
@@ -10797,7 +10917,7 @@
         <v>8</v>
       </c>
       <c r="O21" s="55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P21" s="27"/>
     </row>
@@ -10821,7 +10941,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="12" t="s">
@@ -10846,7 +10966,7 @@
         <v>8</v>
       </c>
       <c r="O22" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P22" s="27"/>
     </row>
@@ -10870,7 +10990,7 @@
         <v>56</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="12" t="s">
@@ -10895,7 +11015,7 @@
         <v>17</v>
       </c>
       <c r="O23" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P23" s="27"/>
     </row>
@@ -10919,7 +11039,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="12" t="s">
@@ -10944,7 +11064,7 @@
         <v>8</v>
       </c>
       <c r="O24" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P24" s="27"/>
     </row>
@@ -10967,7 +11087,7 @@
         <v>56</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="12" t="s">
@@ -10990,7 +11110,7 @@
         <v>17</v>
       </c>
       <c r="O25" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P25" s="27"/>
     </row>
@@ -11014,7 +11134,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="12" t="s">
@@ -11039,7 +11159,7 @@
         <v>17</v>
       </c>
       <c r="O26" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P26" s="27"/>
     </row>
@@ -11063,7 +11183,7 @@
         <v>123</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="12" t="s">
@@ -11088,7 +11208,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P27" s="27"/>
     </row>
@@ -11109,7 +11229,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="12" t="s">
@@ -11154,7 +11274,7 @@
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="12" t="s">
@@ -11176,7 +11296,7 @@
         <v>56</v>
       </c>
       <c r="O29" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P29" s="27"/>
     </row>
@@ -11198,7 +11318,7 @@
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="12" t="s">
@@ -11223,7 +11343,7 @@
         <v>8</v>
       </c>
       <c r="O30" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P30" s="27"/>
     </row>
@@ -11255,17 +11375,17 @@
         <v>56</v>
       </c>
       <c r="O31" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P31" s="27"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
+      <c r="A32" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
       <c r="I32" s="12" t="s">
         <v>144</v>
       </c>
@@ -11288,7 +11408,7 @@
         <v>8</v>
       </c>
       <c r="O32" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P32" s="27"/>
     </row>
@@ -11318,22 +11438,22 @@
         <v>56</v>
       </c>
       <c r="O33" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P33" s="27"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
         <v>207</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>208</v>
-      </c>
-      <c r="C34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" t="s">
-        <v>210</v>
       </c>
       <c r="E34" s="57"/>
       <c r="I34" s="12" t="s">
@@ -11394,23 +11514,23 @@
         <v>56</v>
       </c>
       <c r="O35" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P35" s="27"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="57" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="B36">
-        <f>3.1</f>
-        <v>3.1</v>
+        <f>3.4</f>
+        <v>3.4</v>
       </c>
       <c r="C36" s="57">
         <v>10</v>
       </c>
-      <c r="D36" s="57">
-        <v>893.3</v>
+      <c r="D36" s="119">
+        <v>1050</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>155</v>
@@ -11433,23 +11553,24 @@
         <v>56</v>
       </c>
       <c r="O36" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P36" s="27"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="B37">
-        <v>7.3</v>
+        <v>2.5</v>
       </c>
       <c r="C37">
         <f>36</f>
         <v>36</v>
       </c>
       <c r="D37">
-        <v>4204</v>
+        <f>3271</f>
+        <v>3271</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>156</v>
@@ -11473,7 +11594,7 @@
         <v>8</v>
       </c>
       <c r="O37" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P37" s="27"/>
     </row>
@@ -11493,7 +11614,7 @@
       </c>
       <c r="N38" s="29"/>
       <c r="O38" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P38" s="27"/>
     </row>
@@ -11516,22 +11637,22 @@
       </c>
       <c r="N39" s="29"/>
       <c r="O39" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P39" s="27"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" t="s">
         <v>207</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>208</v>
-      </c>
-      <c r="C40" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" t="s">
-        <v>210</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>159</v>
@@ -11553,7 +11674,7 @@
         <v>55</v>
       </c>
       <c r="O40" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P40" s="27"/>
     </row>
@@ -11586,23 +11707,23 @@
       </c>
       <c r="N41" s="29"/>
       <c r="O41" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P41" s="27"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="57" t="s">
-        <v>211</v>
+      <c r="A42" s="119" t="s">
+        <v>296</v>
       </c>
       <c r="B42" s="57">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="C42" s="57">
         <f>10</f>
         <v>10</v>
       </c>
       <c r="D42" s="57">
-        <v>1674</v>
+        <v>1963</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>165</v>
@@ -11619,24 +11740,24 @@
       </c>
       <c r="N42" s="29"/>
       <c r="O42" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P42" s="27"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="B43">
-        <f>14.6</f>
-        <v>14.6</v>
+        <f>4.5</f>
+        <v>4.5</v>
       </c>
       <c r="C43">
         <f>36</f>
         <v>36</v>
       </c>
       <c r="D43">
-        <v>7953.4</v>
+        <v>5250</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>166</v>
@@ -11658,7 +11779,7 @@
         <v>55</v>
       </c>
       <c r="O43" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P43" s="27"/>
     </row>
@@ -11683,7 +11804,7 @@
         <v>17</v>
       </c>
       <c r="O44" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P44" s="27"/>
     </row>
@@ -11711,22 +11832,22 @@
         <v>8</v>
       </c>
       <c r="O45" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P45" s="27"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
         <v>207</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>208</v>
-      </c>
-      <c r="C46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" t="s">
-        <v>210</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>170</v>
@@ -11748,7 +11869,7 @@
         <v>8</v>
       </c>
       <c r="O46" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P46" s="27"/>
     </row>
@@ -11786,23 +11907,23 @@
         <v>8</v>
       </c>
       <c r="O47" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P47" s="27"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="57" t="s">
-        <v>211</v>
+      <c r="A48" s="119" t="s">
+        <v>296</v>
       </c>
       <c r="B48" s="57">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="C48" s="57">
         <f>10</f>
         <v>10</v>
       </c>
       <c r="D48" s="57">
-        <v>1699.6</v>
+        <v>1993</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>175</v>
@@ -11822,24 +11943,23 @@
         <v>8</v>
       </c>
       <c r="O48" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P48" s="27"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="B49">
-        <f>15.1</f>
-        <v>15.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C49">
         <f>36</f>
         <v>36</v>
       </c>
       <c r="D49">
-        <v>8078.7</v>
+        <v>5289</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>172</v>
@@ -11861,7 +11981,7 @@
         <v>123</v>
       </c>
       <c r="O49" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P49" s="27"/>
     </row>
@@ -11886,17 +12006,17 @@
         <v>123</v>
       </c>
       <c r="O50" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P50" s="27"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
+      <c r="A51" s="127" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
       <c r="I51" s="12" t="s">
         <v>174</v>
       </c>
@@ -11917,7 +12037,7 @@
         <v>17</v>
       </c>
       <c r="O51" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P51" s="27"/>
     </row>
@@ -11928,16 +12048,16 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -11955,34 +12075,33 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="57" t="s">
-        <v>211</v>
+      <c r="A55" s="119" t="s">
+        <v>296</v>
       </c>
       <c r="B55" s="57">
-        <f>4.6</f>
-        <v>4.5999999999999996</v>
+        <f>4.8</f>
+        <v>4.8</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
       <c r="D55" s="73">
-        <v>5355</v>
+        <v>6158</v>
       </c>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56">
-        <f>3.9</f>
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
       <c r="D56" s="73">
-        <v>7603.3</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -11992,21 +12111,21 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" t="s">
-        <v>184</v>
+      <c r="A60" s="119" t="s">
+        <v>296</v>
       </c>
       <c r="B60">
         <f>9.5</f>
@@ -12021,32 +12140,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B61" s="57">
-        <f>10.4</f>
-        <v>10.4</v>
+        <f>11.2</f>
+        <v>11.2</v>
       </c>
       <c r="C61" s="57">
         <v>10</v>
       </c>
       <c r="D61" s="73">
-        <v>12018.9</v>
+        <v>14346</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B62">
-        <f>8.4</f>
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
       <c r="D62" s="73">
-        <v>16157.6</v>
+        <v>17726</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -12056,19 +12174,19 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -12089,11 +12207,11 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="57" t="s">
-        <v>211</v>
+      <c r="A67" s="119" t="s">
+        <v>296</v>
       </c>
       <c r="B67" s="57">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="C67" s="57">
         <v>10</v>
@@ -12102,16 +12220,16 @@
         <v>25</v>
       </c>
       <c r="E67">
-        <v>5351</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B68">
-        <f>6.8</f>
-        <v>6.8</v>
+        <f>6.9</f>
+        <v>6.9</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -12120,7 +12238,7 @@
         <v>25</v>
       </c>
       <c r="E68">
-        <v>9124</v>
+        <v>9835</v>
       </c>
     </row>
   </sheetData>
